--- a/FAQ测试数据导入模板.xlsx
+++ b/FAQ测试数据导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AICP\ICBC\inandout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D73888-759F-4667-8A54-74D8FFD37104}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAD42E8-D77A-469E-A344-D81480DC405A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>申VISA卡</t>
   </si>
@@ -620,6 +620,10 @@
   </si>
   <si>
     <t>添利宝这种理财产品当天赎回能当天到帐吗</t>
+  </si>
+  <si>
+    <t>1申VISA卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1014,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1027,6 +1031,14 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
